--- a/data/trans_dic/P22$concerIndv-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerIndv-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,53</t>
+          <t>0,39; 1,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,59</t>
+          <t>0,37; 1,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,5</t>
+          <t>0,26; 1,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,26</t>
+          <t>1,0; 3,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,46</t>
+          <t>1,02; 2,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,06</t>
+          <t>0,7; 2,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,08</t>
+          <t>0,45; 2,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,82</t>
+          <t>1,14; 2,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,82</t>
+          <t>0,89; 1,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,62</t>
+          <t>0,7; 1,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,53</t>
+          <t>0,5; 1,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,65</t>
+          <t>1,3; 2,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,46</t>
+          <t>1,17; 2,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,94</t>
+          <t>2,14; 3,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,08</t>
+          <t>1,76; 3,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 5,27</t>
+          <t>2,88; 5,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,97</t>
+          <t>3,02; 5,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,87</t>
+          <t>2,94; 4,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,25</t>
+          <t>2,6; 4,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,29</t>
+          <t>4,39; 7,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,42</t>
+          <t>2,28; 3,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,0</t>
+          <t>2,71; 4,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 3,43</t>
+          <t>2,4; 3,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 5,94</t>
+          <t>4,08; 6,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 12,52</t>
+          <t>7,36; 12,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 13,79</t>
+          <t>7,29; 13,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,18; 13,55</t>
+          <t>8,07; 13,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 19,37</t>
+          <t>13,03; 19,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 13,25</t>
+          <t>7,46; 13,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 10,62</t>
+          <t>5,3; 10,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,74; 17,47</t>
+          <t>11,32; 17,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,33; 22,95</t>
+          <t>17,17; 22,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,12; 12,06</t>
+          <t>8,29; 11,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,72; 10,71</t>
+          <t>7,1; 11,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 14,72</t>
+          <t>10,64; 14,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,91; 19,92</t>
+          <t>15,99; 19,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,4</t>
+          <t>2,31; 3,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,05</t>
+          <t>2,67; 3,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,0</t>
+          <t>2,78; 4,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,06</t>
+          <t>4,64; 7,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 4,62</t>
+          <t>3,28; 4,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,12</t>
+          <t>2,73; 3,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 5,24</t>
+          <t>3,73; 5,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 8,73</t>
+          <t>6,33; 8,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,85</t>
+          <t>2,9; 3,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 3,8</t>
+          <t>2,93; 3,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 4,36</t>
+          <t>3,47; 4,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,58</t>
+          <t>5,96; 7,64</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguro Médico concertado individualmente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8461</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7933</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5222</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9778</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22340</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17146</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10153</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13675</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30801</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>25079</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15375</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23454</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3964; 16758</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3630; 15363</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1946; 12097</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5163; 16809</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13445; 32965</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9424; 29143</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4415; 19909</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8598; 20911</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20837; 43413</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16072; 37826</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8652; 26174</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16534; 33243</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>29556</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>56614</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>49425</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>95219</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>61832</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>66659</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>67348</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>135376</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>91388</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>123273</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>116773</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>230595</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19838; 41589</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>42010; 73822</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>36549; 66677</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>65960; 121210</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>47903; 80188</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>51738; 84995</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>51734; 85901</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>98273; 164606</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>74761; 114180</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>100856; 149263</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>97429; 141430</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>184925; 271473</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>54065</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47627</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>58362</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>102361</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>48606</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>34965</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>78827</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>131709</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>102671</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>82592</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>137189</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>234070</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>40569; 69190</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35100; 63388</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>44033; 73484</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>84270; 123452</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>35529; 63286</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24313; 48672</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62181; 97774</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>113378; 149561</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>85178; 122519</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>66717; 103477</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>116480; 160736</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>208975; 260739</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>92082</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>112174</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>113008</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>207358</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>132778</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>118770</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>156329</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>280760</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>224860</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>230944</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>269336</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>488118</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>75537; 111272</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>91187; 136102</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>93681; 134968</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>160201; 244036</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>110874; 157521</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>96955; 141498</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>131597; 184328</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>230968; 317372</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>193013; 253601</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>204254; 267092</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>239171; 308421</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>423177; 542803</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>